--- a/data/trans_bre/P16B02-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B02-Provincia-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B02-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B02-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,31</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -614,22 +614,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-7,3%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,7%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-25,14; 16,53</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5,72; 38,85</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-31,14; 27,19</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,81; 117,75</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,73</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,16</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,99</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,52%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,02; 36,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,13; 20,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,76; 29,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,55; 65,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,02; 33,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,71; 64,37</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,1%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,04; 22,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,7; 15,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,11; 21,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,65; 32,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,48; 20,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,27; 34,72</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,48</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,63</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,48%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,39; 18,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,26; 21,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,03; 18,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,54; 26,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,32; 35,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,99; 28,35</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,6</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,88</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,75%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,82%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,68%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,78; 12,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,88; 3,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,52; 20,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,63; 20,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,66; 3,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,16; 28,04</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,13</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,43%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,0; 22,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,31; 16,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,82; 13,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,76; 35,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,65; 23,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,39; 17,37</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,56</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,43</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,35%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 20,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,4; 12,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,95; 23,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,35; 29,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,74; 17,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,1; 48,21</t>
         </is>
       </c>
     </row>
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,23</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,31%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,39%</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,54; 13,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,54; 5,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,32; 12,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,47; 19,47</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,68; 7,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,67; 20,79</t>
         </is>
       </c>
     </row>
@@ -1244,32 +1244,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,21</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,01</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,54%</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,84; 10,92</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,27; 7,54</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,7; 13,77</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,29; 14,69</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,58; 10,36</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,78; 21,73</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B02-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B02-Provincia-trans_bre.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>11,94</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,93%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,83; 30,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,02; 58,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,48</t>
+          <t>7,22</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,74%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 21,26</t>
+          <t>-6,38; 20,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,32; 35,32</t>
+          <t>-7,92; 33,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_bre/P16B02-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B02-Provincia-trans_bre.xlsx
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-25,14; 16,53</t>
+          <t>-24,55; 15,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 30,18</t>
+          <t>-4,64; 30,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,72; 38,85</t>
+          <t>6,09; 39,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-31,14; 27,19</t>
+          <t>-29,98; 26,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 58,97</t>
+          <t>-6,04; 63,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,81; 117,75</t>
+          <t>10,53; 113,52</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,02; 36,74</t>
+          <t>8,21; 37,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 20,15</t>
+          <t>-1,74; 21,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,76; 29,59</t>
+          <t>4,09; 30,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,55; 65,51</t>
+          <t>10,23; 66,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 33,36</t>
+          <t>-2,37; 36,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,71; 64,37</t>
+          <t>5,53; 63,09</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 22,47</t>
+          <t>-7,48; 21,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 15,55</t>
+          <t>-6,04; 15,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 21,31</t>
+          <t>-5,26; 21,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 32,87</t>
+          <t>-7,91; 31,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 20,42</t>
+          <t>-6,84; 20,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 34,72</t>
+          <t>-6,53; 34,19</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 18,5</t>
+          <t>-8,73; 17,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 20,64</t>
+          <t>-5,19; 21,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 18,12</t>
+          <t>-3,44; 18,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 26,91</t>
+          <t>-9,85; 23,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 33,25</t>
+          <t>-6,67; 36,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 28,35</t>
+          <t>-4,13; 29,18</t>
         </is>
       </c>
     </row>
@@ -962,39 +962,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-28,78; 12,25</t>
+          <t>-29,04; 12,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-20,88; 3,33</t>
+          <t>-21,27; 2,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 20,01</t>
+          <t>-11,86; 20,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-34,63; 20,14</t>
+          <t>-34,01; 20,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-21,66; 3,78</t>
+          <t>-22,16; 2,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,16; 28,04</t>
+          <t>-12,91; 30,33</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 22,39</t>
+          <t>-9,96; 22,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 16,17</t>
+          <t>-9,25; 14,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-13,82; 13,66</t>
+          <t>-14,02; 12,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 35,38</t>
+          <t>-11,57; 34,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-11,65; 23,32</t>
+          <t>-10,48; 20,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-14,39; 17,37</t>
+          <t>-14,88; 14,51</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,29; 20,84</t>
+          <t>0,39; 19,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 12,64</t>
+          <t>-6,54; 11,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 23,53</t>
+          <t>-2,48; 23,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,35; 29,11</t>
+          <t>0,6; 27,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 17,8</t>
+          <t>-7,72; 16,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 48,21</t>
+          <t>-3,12; 47,6</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 13,78</t>
+          <t>-4,56; 14,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 5,26</t>
+          <t>-13,15; 6,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 12,99</t>
+          <t>-6,77; 12,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 19,47</t>
+          <t>-5,43; 20,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,68; 7,01</t>
+          <t>-15,58; 9,08</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 20,79</t>
+          <t>-9,13; 20,44</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,84; 10,92</t>
+          <t>1,34; 11,07</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 7,54</t>
+          <t>-0,52; 7,56</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,7; 13,77</t>
+          <t>4,63; 13,65</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,29; 14,69</t>
+          <t>1,64; 14,98</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 10,36</t>
+          <t>-0,65; 10,26</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,78; 21,73</t>
+          <t>6,64; 21,43</t>
         </is>
       </c>
     </row>
